--- a/Documentation/AssetSheet.xlsx
+++ b/Documentation/AssetSheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>p90</t>
   </si>
@@ -59,12 +59,6 @@
     <t>M1</t>
   </si>
   <si>
-    <t>crossbow?</t>
-  </si>
-  <si>
-    <t>some meme guns like some shit that shoots rainbows idk</t>
-  </si>
-  <si>
     <t>barret50cal</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
     <t>USP45</t>
   </si>
   <si>
-    <t>replace sprite in game</t>
-  </si>
-  <si>
     <t>ak47</t>
   </si>
   <si>
@@ -111,13 +102,43 @@
   </si>
   <si>
     <t>m16</t>
+  </si>
+  <si>
+    <t>Grenade Launcher</t>
+  </si>
+  <si>
+    <t>Machine Gun</t>
+  </si>
+  <si>
+    <t>Sniper Rifle</t>
+  </si>
+  <si>
+    <t>Pistol</t>
+  </si>
+  <si>
+    <t>SMG</t>
+  </si>
+  <si>
+    <t>Rifle</t>
+  </si>
+  <si>
+    <t>Shotgun</t>
+  </si>
+  <si>
+    <t>Rocket Launcher</t>
+  </si>
+  <si>
+    <t>Extra scripting done</t>
+  </si>
+  <si>
+    <t>Crossbow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +149,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -159,9 +188,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -477,162 +507,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection sqref="A1:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="48.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A1:F23">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
